--- a/img/illustration.xlsx
+++ b/img/illustration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trang\Google Drive\github\explanation4tsc-2nd\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trang\Google Drive\github\anonymous-amee-paper\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624D2BDC-783A-487E-8E57-40E13E3C1771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CEC70-5DE8-49CA-AAE9-654C9D6AF1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{3B9E23D8-95D2-4D4B-A7DE-A931C8D726AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{3B9E23D8-95D2-4D4B-A7DE-A931C8D726AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -555,28 +569,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -586,25 +582,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -615,18 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -644,12 +619,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -675,15 +695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>50801</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>178254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>49893</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1042459</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>8466</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -698,8 +718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1545167" y="2379587"/>
-          <a:ext cx="5278059" cy="202746"/>
+          <a:off x="1553634" y="2411337"/>
+          <a:ext cx="5224992" cy="208038"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1117,6 +1137,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888AE7F2-D3BA-4E11-B1A3-F901C261157F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2137833" y="5781070"/>
+          <a:ext cx="4671485" cy="198513"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1419,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502F134E-4ECC-4180-B8BD-4255765EE86C}">
   <dimension ref="A10:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" zoomScale="225" zoomScaleNormal="149" zoomScalePageLayoutView="225" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A10" zoomScale="120" zoomScaleNormal="149" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,37 +1524,37 @@
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N12" t="s">
@@ -1478,25 +1566,25 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="7">
         <v>0.68</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="7">
         <v>0.65</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="7">
         <v>0.5</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="8">
         <v>0.45</v>
       </c>
       <c r="J13" s="1">
@@ -1517,23 +1605,23 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="7">
         <v>0.5</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="7">
         <v>0.35</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="7">
         <v>0.38</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="8">
         <v>0.32</v>
       </c>
       <c r="J14" s="1">
@@ -1557,23 +1645,23 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="7">
         <v>0.91</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="7">
         <v>0.9</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="7">
         <v>0.8</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="8">
         <v>0.6</v>
       </c>
       <c r="J15" s="1">
@@ -1597,25 +1685,25 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="10">
         <v>0.68</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="10">
         <v>0.66</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="10">
         <v>0.42</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="10">
         <v>0.53</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="11">
         <v>0.46</v>
       </c>
       <c r="J16" s="1">
@@ -1639,23 +1727,23 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="7">
         <v>0.5</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="7">
         <v>0.43</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="7">
         <v>0.45</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="8">
         <v>0.4</v>
       </c>
       <c r="J17" s="1">
@@ -1679,23 +1767,23 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="13">
         <v>0.7</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="13">
         <v>0.63</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="13">
         <v>0.65</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="14">
         <v>0.55000000000000004</v>
       </c>
       <c r="J18" s="1">
@@ -1719,8 +1807,8 @@
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1735,19 +1823,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
       <c r="N20">
         <v>0.7</v>
       </c>
@@ -1757,21 +1845,21 @@
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N21">
@@ -1783,29 +1871,29 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="7">
         <f>(D13-$J13)/$L13</f>
         <v>1</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="7">
         <f t="shared" ref="E22:H22" si="3">(E13-$J13)/$L13</f>
         <v>0.86956521739130421</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="7">
         <f t="shared" si="3"/>
         <v>0.217391304347826</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="7">
         <f t="shared" si="3"/>
         <v>0.43478260869565227</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1818,27 +1906,27 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="28">
         <f t="shared" ref="D23:H23" si="4">(D14-$J14)/$L14</f>
         <v>1</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="28">
         <f t="shared" si="4"/>
         <v>0.78260869565217372</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="28">
         <f t="shared" si="4"/>
         <v>0.13043478260869551</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="28">
         <f t="shared" si="4"/>
         <v>0.26086956521739124</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1851,110 +1939,110 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="18">
         <f t="shared" ref="D24:H24" si="5">(D15-$J15)/$L15</f>
         <v>1</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="18">
         <f t="shared" si="5"/>
         <v>0.97222222222222221</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="18">
         <f t="shared" si="5"/>
         <v>0.69444444444444442</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="19">
         <f t="shared" si="5"/>
         <v>0.1388888888888887</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="10">
         <f t="shared" ref="D25:H25" si="6">(D16-$J16)/$L16</f>
         <v>1</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="10">
         <f t="shared" si="6"/>
         <v>0.92307692307692302</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="10">
         <f t="shared" si="6"/>
         <v>0.42307692307692313</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="11">
         <f t="shared" si="6"/>
         <v>0.15384615384615394</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="7">
         <f t="shared" ref="D26:H26" si="7">(D17-$J17)/$L17</f>
         <v>1</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="7">
         <f t="shared" si="7"/>
         <v>0.66666666666666641</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="7">
         <f t="shared" si="7"/>
         <v>0.19999999999999979</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="7">
         <f t="shared" si="7"/>
         <v>0.3333333333333332</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="13">
         <f t="shared" ref="D27:H27" si="8">(D18-$J18)/$L18</f>
         <v>1</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="13">
         <f t="shared" si="8"/>
         <v>0.53333333333333344</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="13">
         <f t="shared" si="8"/>
         <v>0.19999999999999957</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="13">
         <f t="shared" si="8"/>
         <v>0.66666666666666696</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1971,49 +2059,49 @@
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="14">
+      <c r="C30" s="45"/>
+      <c r="D30" s="7">
         <f>AVERAGE(D22:D27)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="7">
         <f t="shared" ref="E30:H30" si="9">AVERAGE(E22:E27)</f>
         <v>0.79124550972377039</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="7">
         <f t="shared" si="9"/>
         <v>0.12463768115942013</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="30">
         <f t="shared" si="9"/>
         <v>0.46886225690573519</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="8">
         <f t="shared" si="9"/>
         <v>4.8789173789173773E-2</v>
       </c>
@@ -2032,54 +2120,54 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="14">
+      <c r="C31" s="45"/>
+      <c r="D31" s="7">
         <f>(D30-$J30)/$L30</f>
         <v>1</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="7">
         <f t="shared" ref="E31:H31" si="13">(E30-$J30)/$L30</f>
         <v>0.78053814724984927</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="7">
         <f t="shared" si="13"/>
         <v>7.9738902544235032E-2</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="7">
         <f t="shared" si="13"/>
         <v>0.44161932511842178</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42">
+      <c r="C32" s="47"/>
+      <c r="D32" s="25">
         <f>1-D31</f>
         <v>0</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="25">
         <f t="shared" ref="E32:H32" si="14">1-E31</f>
         <v>0.21946185275015073</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="25">
         <f t="shared" si="14"/>
         <v>0.92026109745576501</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="25">
         <f t="shared" si="14"/>
         <v>0.55838067488157828</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="26">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
